--- a/May.xlsx
+++ b/May.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\WorkTimeChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1BBDD4-7C73-477D-BAF4-3E77EE7C7B2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2849818-F127-4DDB-8785-3D84162D834A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" xr2:uid="{449CFF46-FDBA-4C0D-99BD-86E99E782A9D}"/>
   </bookViews>
@@ -30,28 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
-  <si>
-    <t>月</t>
-  </si>
-  <si>
-    <t>火</t>
-  </si>
-  <si>
-    <t>水</t>
-  </si>
-  <si>
-    <t>木</t>
-  </si>
-  <si>
-    <t>金</t>
-  </si>
-  <si>
-    <t>土</t>
-  </si>
-  <si>
-    <t>日</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -78,6 +57,31 @@
   </si>
   <si>
     <t>To</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>週三</t>
+  </si>
+  <si>
+    <t>週四</t>
+  </si>
+  <si>
+    <t>週五</t>
+  </si>
+  <si>
+    <t>週六</t>
+  </si>
+  <si>
+    <t>週日</t>
+  </si>
+  <si>
+    <t>週一</t>
+  </si>
+  <si>
+    <t>週二</t>
+  </si>
+  <si>
+    <t>Total</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -89,7 +93,7 @@
     <numFmt numFmtId="176" formatCode="d"/>
     <numFmt numFmtId="177" formatCode="[h]:mm;\(0\);#"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +114,13 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -174,7 +185,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -198,6 +209,12 @@
     </xf>
     <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,17 +530,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1DEDDF-F934-407A-A10E-46C8AD5E4DAE}">
-  <dimension ref="A1:AF7"/>
+  <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
         <v>43586</v>
@@ -621,105 +638,105 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>18</v>
@@ -817,7 +834,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
@@ -850,10 +867,10 @@
         <v>1</v>
       </c>
       <c r="L4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="6">
         <v>1</v>
@@ -871,10 +888,10 @@
         <v>1</v>
       </c>
       <c r="S4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="6">
         <v>1</v>
@@ -892,10 +909,10 @@
         <v>1</v>
       </c>
       <c r="Z4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="6">
         <v>1</v>
@@ -915,7 +932,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B5" s="7">
         <v>0</v>
@@ -960,13 +977,13 @@
         <v>0.3125</v>
       </c>
       <c r="P5" s="7">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Q5" s="7">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="R5" s="7">
-        <v>0</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="S5" s="7">
         <v>0</v>
@@ -1013,7 +1030,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1044,8 +1061,12 @@
       <c r="P6" s="1">
         <v>0.375</v>
       </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="Q6" s="1">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -1063,131 +1084,140 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f t="shared" ref="B7:O7" si="0">IF(AND(B5&lt;&gt;TIME(0,0,0),B6 &lt;&gt; ""),B6+B5+TIME(1,0,0),"")</f>
+        <f>IF(AND(B5&lt;&gt;TIME(0,0,0),B6 &lt;&gt; ""),B6+B5+TIME(1,0,0),"")</f>
         <v/>
       </c>
       <c r="C7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(C5&lt;&gt;TIME(0,0,0),C6 &lt;&gt; ""),C6+C5+TIME(1,0,0),"")</f>
         <v/>
       </c>
       <c r="D7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(D5&lt;&gt;TIME(0,0,0),D6 &lt;&gt; ""),D6+D5+TIME(1,0,0),"")</f>
         <v/>
       </c>
       <c r="E7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(E5&lt;&gt;TIME(0,0,0),E6 &lt;&gt; ""),E6+E5+TIME(1,0,0),"")</f>
         <v/>
       </c>
       <c r="F7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(F5&lt;&gt;TIME(0,0,0),F6 &lt;&gt; ""),F6+F5+TIME(1,0,0),"")</f>
         <v/>
       </c>
       <c r="G7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G5&lt;&gt;TIME(0,0,0),G6 &lt;&gt; ""),G6+G5+TIME(1,0,0),"")</f>
         <v/>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(AND(H5&lt;&gt;TIME(0,0,0),H6 &lt;&gt; ""),H6+H5+TIME(1,0,0),"")</f>
         <v>0.74999999999999989</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(AND(I5&lt;&gt;TIME(0,0,0),I6 &lt;&gt; ""),I6+I5+TIME(1,0,0),"")</f>
         <v>0.74999999999999989</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(AND(J5&lt;&gt;TIME(0,0,0),J6 &lt;&gt; ""),J6+J5+TIME(1,0,0),"")</f>
         <v>0.77777777777777768</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K5&lt;&gt;TIME(0,0,0),K6 &lt;&gt; ""),K6+K5+TIME(1,0,0),"")</f>
         <v>0.77083333333333326</v>
       </c>
       <c r="L7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(L5&lt;&gt;TIME(0,0,0),L6 &lt;&gt; ""),L6+L5+TIME(1,0,0),"")</f>
         <v/>
       </c>
       <c r="M7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(M5&lt;&gt;TIME(0,0,0),M6 &lt;&gt; ""),M6+M5+TIME(1,0,0),"")</f>
         <v/>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(AND(N5&lt;&gt;TIME(0,0,0),N6 &lt;&gt; ""),N6+N5+TIME(1,0,0),"")</f>
         <v>0.76388888888888895</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(AND(O5&lt;&gt;TIME(0,0,0),O6 &lt;&gt; ""),O6+O5+TIME(1,0,0),"")</f>
         <v>0.77083333333333337</v>
       </c>
-      <c r="P7" s="1" t="str">
+      <c r="P7" s="1">
         <f>IF(AND(P5&lt;&gt;TIME(0,0,0),P6 &lt;&gt; ""),P6+P5+TIME(1,0,0),"")</f>
-        <v/>
-      </c>
-      <c r="Q7" s="1" t="str">
-        <f t="shared" ref="Q7:AF7" si="1">IF(AND(Q5&lt;&gt;TIME(0,0,0),Q6 &lt;&gt; ""),Q6+Q5+TIME(1,0,0),"")</f>
-        <v/>
-      </c>
-      <c r="R7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>IF(AND(Q5&lt;&gt;TIME(0,0,0),Q6 &lt;&gt; ""),Q6+Q5+TIME(1,0,0),"")</f>
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="R7" s="1">
+        <f>IF(AND(R5&lt;&gt;TIME(0,0,0),R6 &lt;&gt; ""),R6+R5+TIME(1,0,0),"")</f>
+        <v>0.77083333333333337</v>
       </c>
       <c r="S7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(S5&lt;&gt;TIME(0,0,0),S6 &lt;&gt; ""),S6+S5+TIME(1,0,0),"")</f>
         <v/>
       </c>
       <c r="T7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(T5&lt;&gt;TIME(0,0,0),T6 &lt;&gt; ""),T6+T5+TIME(1,0,0),"")</f>
         <v/>
       </c>
       <c r="U7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(U5&lt;&gt;TIME(0,0,0),U6 &lt;&gt; ""),U6+U5+TIME(1,0,0),"")</f>
         <v/>
       </c>
       <c r="V7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(V5&lt;&gt;TIME(0,0,0),V6 &lt;&gt; ""),V6+V5+TIME(1,0,0),"")</f>
         <v/>
       </c>
       <c r="W7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(W5&lt;&gt;TIME(0,0,0),W6 &lt;&gt; ""),W6+W5+TIME(1,0,0),"")</f>
         <v/>
       </c>
       <c r="X7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(X5&lt;&gt;TIME(0,0,0),X6 &lt;&gt; ""),X6+X5+TIME(1,0,0),"")</f>
         <v/>
       </c>
       <c r="Y7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(Y5&lt;&gt;TIME(0,0,0),Y6 &lt;&gt; ""),Y6+Y5+TIME(1,0,0),"")</f>
         <v/>
       </c>
       <c r="Z7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(Z5&lt;&gt;TIME(0,0,0),Z6 &lt;&gt; ""),Z6+Z5+TIME(1,0,0),"")</f>
         <v/>
       </c>
       <c r="AA7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(AA5&lt;&gt;TIME(0,0,0),AA6 &lt;&gt; ""),AA6+AA5+TIME(1,0,0),"")</f>
         <v/>
       </c>
       <c r="AB7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(AB5&lt;&gt;TIME(0,0,0),AB6 &lt;&gt; ""),AB6+AB5+TIME(1,0,0),"")</f>
         <v/>
       </c>
       <c r="AC7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(AC5&lt;&gt;TIME(0,0,0),AC6 &lt;&gt; ""),AC6+AC5+TIME(1,0,0),"")</f>
         <v/>
       </c>
       <c r="AD7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(AD5&lt;&gt;TIME(0,0,0),AD6 &lt;&gt; ""),AD6+AD5+TIME(1,0,0),"")</f>
         <v/>
       </c>
       <c r="AE7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(AE5&lt;&gt;TIME(0,0,0),AE6 &lt;&gt; ""),AE6+AE5+TIME(1,0,0),"")</f>
         <v/>
       </c>
       <c r="AF7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>IF(AND(AF5&lt;&gt;TIME(0,0,0),AF6 &lt;&gt; ""),AF6+AF5+TIME(1,0,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8">
+        <f>SUM(B5:AF5)</f>
+        <v>2.9305555555555558</v>
       </c>
     </row>
   </sheetData>

--- a/May.xlsx
+++ b/May.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\WorkTimeChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2849818-F127-4DDB-8785-3D84162D834A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8F8303-E3E5-4D71-9D2C-F8A3071E6242}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" xr2:uid="{449CFF46-FDBA-4C0D-99BD-86E99E782A9D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Monthly" sheetId="1" r:id="rId1"/>
+    <sheet name="May" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,29 +60,29 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>週三</t>
-  </si>
-  <si>
-    <t>週四</t>
-  </si>
-  <si>
-    <t>週五</t>
-  </si>
-  <si>
-    <t>週六</t>
-  </si>
-  <si>
-    <t>週日</t>
-  </si>
-  <si>
-    <t>週一</t>
-  </si>
-  <si>
-    <t>週二</t>
-  </si>
-  <si>
     <t>Total</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>土</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>火</t>
   </si>
 </sst>
 </file>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1DEDDF-F934-407A-A10E-46C8AD5E4DAE}">
   <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -641,97 +641,97 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="O2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="V2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
@@ -867,10 +867,10 @@
         <v>1</v>
       </c>
       <c r="L4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="6">
         <v>1</v>
@@ -888,10 +888,10 @@
         <v>1</v>
       </c>
       <c r="S4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="6">
         <v>1</v>
@@ -909,10 +909,10 @@
         <v>1</v>
       </c>
       <c r="Z4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="6">
         <v>1</v>
@@ -992,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="U5" s="7">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V5" s="7">
-        <v>0</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="W5" s="7">
-        <v>0</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="X5" s="7">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Y5" s="7">
-        <v>0</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="Z5" s="7">
         <v>0</v>
@@ -1016,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="AC5" s="7">
-        <v>0</v>
+        <v>0.30555555555555558</v>
       </c>
       <c r="AD5" s="7">
-        <v>0</v>
+        <v>0.32291666666666663</v>
       </c>
       <c r="AE5" s="7">
         <v>0</v>
@@ -1069,16 +1069,32 @@
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
+      <c r="U6" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0.375</v>
+      </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
     </row>
@@ -1087,137 +1103,137 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f>IF(AND(B5&lt;&gt;TIME(0,0,0),B6 &lt;&gt; ""),B6+B5+TIME(1,0,0),"")</f>
+        <f t="shared" ref="B7:AF7" si="0">IF(AND(B5&lt;&gt;TIME(0,0,0),B6 &lt;&gt; ""),B6+B5+TIME(1,0,0),"")</f>
         <v/>
       </c>
       <c r="C7" s="1" t="str">
-        <f>IF(AND(C5&lt;&gt;TIME(0,0,0),C6 &lt;&gt; ""),C6+C5+TIME(1,0,0),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D7" s="1" t="str">
-        <f>IF(AND(D5&lt;&gt;TIME(0,0,0),D6 &lt;&gt; ""),D6+D5+TIME(1,0,0),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E7" s="1" t="str">
-        <f>IF(AND(E5&lt;&gt;TIME(0,0,0),E6 &lt;&gt; ""),E6+E5+TIME(1,0,0),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F7" s="1" t="str">
-        <f>IF(AND(F5&lt;&gt;TIME(0,0,0),F6 &lt;&gt; ""),F6+F5+TIME(1,0,0),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G7" s="1" t="str">
-        <f>IF(AND(G5&lt;&gt;TIME(0,0,0),G6 &lt;&gt; ""),G6+G5+TIME(1,0,0),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H7" s="1">
-        <f>IF(AND(H5&lt;&gt;TIME(0,0,0),H6 &lt;&gt; ""),H6+H5+TIME(1,0,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0.74999999999999989</v>
       </c>
       <c r="I7" s="1">
-        <f>IF(AND(I5&lt;&gt;TIME(0,0,0),I6 &lt;&gt; ""),I6+I5+TIME(1,0,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0.74999999999999989</v>
       </c>
       <c r="J7" s="1">
-        <f>IF(AND(J5&lt;&gt;TIME(0,0,0),J6 &lt;&gt; ""),J6+J5+TIME(1,0,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0.77777777777777768</v>
       </c>
       <c r="K7" s="1">
-        <f>IF(AND(K5&lt;&gt;TIME(0,0,0),K6 &lt;&gt; ""),K6+K5+TIME(1,0,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0.77083333333333326</v>
       </c>
       <c r="L7" s="1" t="str">
-        <f>IF(AND(L5&lt;&gt;TIME(0,0,0),L6 &lt;&gt; ""),L6+L5+TIME(1,0,0),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M7" s="1" t="str">
-        <f>IF(AND(M5&lt;&gt;TIME(0,0,0),M6 &lt;&gt; ""),M6+M5+TIME(1,0,0),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N7" s="1">
-        <f>IF(AND(N5&lt;&gt;TIME(0,0,0),N6 &lt;&gt; ""),N6+N5+TIME(1,0,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0.76388888888888895</v>
       </c>
       <c r="O7" s="1">
-        <f>IF(AND(O5&lt;&gt;TIME(0,0,0),O6 &lt;&gt; ""),O6+O5+TIME(1,0,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0.77083333333333337</v>
       </c>
       <c r="P7" s="1">
-        <f>IF(AND(P5&lt;&gt;TIME(0,0,0),P6 &lt;&gt; ""),P6+P5+TIME(1,0,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0.74999999999999989</v>
       </c>
       <c r="Q7" s="1">
-        <f>IF(AND(Q5&lt;&gt;TIME(0,0,0),Q6 &lt;&gt; ""),Q6+Q5+TIME(1,0,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0.76388888888888884</v>
       </c>
       <c r="R7" s="1">
-        <f>IF(AND(R5&lt;&gt;TIME(0,0,0),R6 &lt;&gt; ""),R6+R5+TIME(1,0,0),"")</f>
+        <f t="shared" si="0"/>
         <v>0.77083333333333337</v>
       </c>
       <c r="S7" s="1" t="str">
-        <f>IF(AND(S5&lt;&gt;TIME(0,0,0),S6 &lt;&gt; ""),S6+S5+TIME(1,0,0),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T7" s="1" t="str">
-        <f>IF(AND(T5&lt;&gt;TIME(0,0,0),T6 &lt;&gt; ""),T6+T5+TIME(1,0,0),"")</f>
-        <v/>
-      </c>
-      <c r="U7" s="1" t="str">
-        <f>IF(AND(U5&lt;&gt;TIME(0,0,0),U6 &lt;&gt; ""),U6+U5+TIME(1,0,0),"")</f>
-        <v/>
-      </c>
-      <c r="V7" s="1" t="str">
-        <f>IF(AND(V5&lt;&gt;TIME(0,0,0),V6 &lt;&gt; ""),V6+V5+TIME(1,0,0),"")</f>
-        <v/>
-      </c>
-      <c r="W7" s="1" t="str">
-        <f>IF(AND(W5&lt;&gt;TIME(0,0,0),W6 &lt;&gt; ""),W6+W5+TIME(1,0,0),"")</f>
-        <v/>
-      </c>
-      <c r="X7" s="1" t="str">
-        <f>IF(AND(X5&lt;&gt;TIME(0,0,0),X6 &lt;&gt; ""),X6+X5+TIME(1,0,0),"")</f>
-        <v/>
-      </c>
-      <c r="Y7" s="1" t="str">
-        <f>IF(AND(Y5&lt;&gt;TIME(0,0,0),Y6 &lt;&gt; ""),Y6+Y5+TIME(1,0,0),"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333326</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="X7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333337</v>
       </c>
       <c r="Z7" s="1" t="str">
-        <f>IF(AND(Z5&lt;&gt;TIME(0,0,0),Z6 &lt;&gt; ""),Z6+Z5+TIME(1,0,0),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AA7" s="1" t="str">
-        <f>IF(AND(AA5&lt;&gt;TIME(0,0,0),AA6 &lt;&gt; ""),AA6+AA5+TIME(1,0,0),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB7" s="1" t="str">
-        <f>IF(AND(AB5&lt;&gt;TIME(0,0,0),AB6 &lt;&gt; ""),AB6+AB5+TIME(1,0,0),"")</f>
-        <v/>
-      </c>
-      <c r="AC7" s="1" t="str">
-        <f>IF(AND(AC5&lt;&gt;TIME(0,0,0),AC6 &lt;&gt; ""),AC6+AC5+TIME(1,0,0),"")</f>
-        <v/>
-      </c>
-      <c r="AD7" s="1" t="str">
-        <f>IF(AND(AD5&lt;&gt;TIME(0,0,0),AD6 &lt;&gt; ""),AD6+AD5+TIME(1,0,0),"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AC7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.76388888888888895</v>
+      </c>
+      <c r="AD7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.76041666666666663</v>
       </c>
       <c r="AE7" s="1" t="str">
-        <f>IF(AND(AE5&lt;&gt;TIME(0,0,0),AE6 &lt;&gt; ""),AE6+AE5+TIME(1,0,0),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF7" s="1" t="str">
-        <f>IF(AND(AF5&lt;&gt;TIME(0,0,0),AF6 &lt;&gt; ""),AF6+AF5+TIME(1,0,0),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:32" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C8" s="8">
         <f>SUM(B5:AF5)</f>
-        <v>2.9305555555555558</v>
+        <v>5.2708333333333339</v>
       </c>
     </row>
   </sheetData>

--- a/May.xlsx
+++ b/May.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\WorkTimeChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8F8303-E3E5-4D71-9D2C-F8A3071E6242}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D682A0BD-50CD-4E82-A162-EBD715D1EE61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" xr2:uid="{449CFF46-FDBA-4C0D-99BD-86E99E782A9D}"/>
   </bookViews>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1DEDDF-F934-407A-A10E-46C8AD5E4DAE}">
   <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB13"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1022,10 +1022,10 @@
         <v>0.32291666666666663</v>
       </c>
       <c r="AE5" s="7">
-        <v>0</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="AF5" s="7">
-        <v>0</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
@@ -1095,8 +1095,12 @@
       <c r="AD6" s="1">
         <v>0.39583333333333331</v>
       </c>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
+      <c r="AE6" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0.39583333333333331</v>
+      </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1218,13 +1222,13 @@
         <f t="shared" si="0"/>
         <v>0.76041666666666663</v>
       </c>
-      <c r="AE7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AF7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AE7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="AF7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.82638888888888884</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="18.75" x14ac:dyDescent="0.2">
@@ -1233,7 +1237,7 @@
       </c>
       <c r="C8" s="8">
         <f>SUM(B5:AF5)</f>
-        <v>5.2708333333333339</v>
+        <v>5.9861111111111125</v>
       </c>
     </row>
   </sheetData>

--- a/May.xlsx
+++ b/May.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\WorkTimeChart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkTimeSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8F8303-E3E5-4D71-9D2C-F8A3071E6242}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD4F69C-CD18-4AEA-95CE-CAB04070D4B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" xr2:uid="{449CFF46-FDBA-4C0D-99BD-86E99E782A9D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{449CFF46-FDBA-4C0D-99BD-86E99E782A9D}"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -93,11 +94,11 @@
     <numFmt numFmtId="176" formatCode="d"/>
     <numFmt numFmtId="177" formatCode="[h]:mm;\(0\);#"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -110,7 +111,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -218,7 +219,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -234,7 +235,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -532,13 +533,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1DEDDF-F934-407A-A10E-46C8AD5E4DAE}">
   <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB13"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,7 +637,7 @@
         <v>43616</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -734,7 +735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -832,7 +833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -930,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1022,13 +1023,13 @@
         <v>0.32291666666666663</v>
       </c>
       <c r="AE5" s="7">
-        <v>0</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="AF5" s="7">
-        <v>0</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1095,10 +1096,14 @@
       <c r="AD6" s="1">
         <v>0.39583333333333331</v>
       </c>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
+      <c r="AE6" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0.39583333333333331</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1218,22 +1223,22 @@
         <f t="shared" si="0"/>
         <v>0.76041666666666663</v>
       </c>
-      <c r="AE7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AF7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AE7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="AF7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="8">
         <f>SUM(B5:AF5)</f>
-        <v>5.2708333333333339</v>
+        <v>5.9861111111111125</v>
       </c>
     </row>
   </sheetData>
